--- a/results/three_quarter_turn.txt_30_yaw_change.xlsx
+++ b/results/three_quarter_turn.txt_30_yaw_change.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artyom\Documents\Projects\autonomous_vehicles1\path-planning-simulation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BE7D8E9-27F9-422D-AB9D-0536ED2D3F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2854E663-9208-40C5-825D-29F59D31B1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="three_quarter_turn.txt_30_yaw_c" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,6 +579,6060 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Yaw change at 30 km/h</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>three_quarter_turn.txt_30_yaw_c!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_30_yaw_c!$A$2:$A$205</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="204"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_30_yaw_c!$B$2:$B$205</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="204"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.89474863273077E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.32612228653021E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.02922142186296E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.2635395594461101E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.4706011699496599E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.6509168378395101E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.5237321241112E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.7775067657256598E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.8623433876513901E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.9278623763835202E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.9746343546942099E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-3.8419137177560701E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.7503302478949202E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.75041744495835E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.7384349446201298E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-3.5890589907494802E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2511840589246499E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.1604169851547904E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.25419861593012E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6995447912839199E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.1872802710438601E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.2704569159214903E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.0487892164144899E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.4825081774335399E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.3477208924093095E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.3673048095082896E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.4624650666669397E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.9390667327118793E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.3043009627572602E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.3211828616450501E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.4059136227934493E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-4.5341507954183003E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.3002581811417394E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-7.7792348125654799E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.0165383338859499E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.87358876512183E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1.16296960880096E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.51733857392798E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.3626842594414699E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.0983416488965703E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.16417406504143E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1.4477272241346E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.8159274575199102E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.55692425907716E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.4603155713791999E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.65657620464032E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.1089016913743801E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.51674797267015E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.55243522501463E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.4331328261556701E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.5461368980456099E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0861590351097799E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.5333317103110001E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.9705975457141608E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-1.5163137159143699E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.604533860176E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-1.4966464742018899E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.7055518356452401E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-1.47537159673638E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-1.7483346100189399E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.0404029948019602E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-1.7213221639287199E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.64283064737646E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-1.6932578758641001E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.2268044433738603E-4</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-1.6646929395993601E-3</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="0.00E+00">
+                  <c:v>-8.6808779182379005E-5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-1.6360092356942899E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-5.4536685527295503E-4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-1.6074795709929901E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-8.0551331059835996E-4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-1.57930340379597E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-9.1265274573099E-4</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-1.5516274743659899E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-9.0537405823803898E-4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-1.52455782654642E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-8.1589914157237299E-4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-1.4981673405062199E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-6.7063469886136096E-4</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-1.47250116705088E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-1.73916919414945E-3</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="0.00E+00">
+                  <c:v>-3.1184701482833699E-5</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-1.70804867177432E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.50482427589693E-4</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-1.6779336336609199E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.3728347800199201E-4</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-1.6488020543310401E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.1914371107614199E-4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-1.6206167199640999E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-5.2673624980271103E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-1.41802715075133E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-2.14909539154042E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-2.74682108226901E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-1.6408149356445501E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-3.6840608490606101E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-4.1004863217506002E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-4.4166195503742102E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-4.6417962440754898E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-4.7834657213996497E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-4.84844978522075E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-4.8437811735925901E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-4.7771318046941902E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-4.6568853366101101E-2</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="0.00E+00">
+                  <c:v>3.8092968248958401E-5</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-5.1609205216111398E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-4.8609141023912998E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-4.53276516382176E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-4.1890000131996202E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-3.8402441821703499E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-3.4950344590301399E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-2.0828525229170999E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-2.19678326463448E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-1.56005646352069E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-1.00135381862847E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-5.1586240690346102E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-9.7502124361514798E-4</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.6009277257825199E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5.3386305621054798E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8.0853144922966493E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>9.6990426204343599E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.19529042218815E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.2672662447383101E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.4480348520642901E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.44968778910998E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.5899042232223898E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.53744661868977E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.6411533215282399E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.54872549145886E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.62027848110072E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.5003286172145001E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1.54443406653854E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.40779060069631E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.4293268384457301E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.35370483463836E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.2096535261084999E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.2064756332809101E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.1220646719772199E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9.8522626326090993E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9.6690641293067803E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>8.3939052119307994E-3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>8.1498709323115908E-3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>7.3661830906351098E-3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.2843357151104798E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5.9997975829092897E-3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5.3222230834158004E-3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>4.4514246749217104E-3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4.1661712422462896E-3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.4286077924556798E-3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.15523801086508E-3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.6797876784045698E-3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1.6562451751349001E-3</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="0.00E+00">
+                  <c:v>-2.8055646448758102E-5</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="0.00E+00">
+                  <c:v>-3.29071305124077E-5</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="0.00E+00">
+                  <c:v>-3.9136103641647699E-5</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="0.00E+00">
+                  <c:v>-4.7318563820042002E-5</c:v>
+                </c:pt>
+                <c:pt idx="202" formatCode="0.00E+00">
+                  <c:v>-5.8366723515931801E-5</c:v>
+                </c:pt>
+                <c:pt idx="203" formatCode="0.00E+00">
+                  <c:v>-7.3795637386416807E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A18C-4606-A516-3FBD744F6965}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>three_quarter_turn.txt_30_yaw_c!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_30_yaw_c!$A$2:$A$205</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="204"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_30_yaw_c!$C$2:$C$205</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="204"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.7766619287819599E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3.3276283657644103E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.9292683409272199E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-8.07148473837251E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.11877853865451E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.18516552405001E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.21960711833667E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.23133428901455E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-8.9554875408405996E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.02727217741119E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.3483134322959104E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.5037546130024502E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.5827426299345202E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-9.6462291549329393E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.3579462813526599E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.37921663594501E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.13035432158345</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.4074075195631599</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.20058501889027899</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.112688896320983</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.0702907374000802E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.4185607286668999E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.5299829217616902E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.2789663438493097E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.6005945591253403E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.9744338357031198E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.100462233952682</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-5.0559566004354503E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.10584327090834</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-6.6669279094197204E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.111302085138584</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-7.94441069845363E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.116439040538349</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.6812671763678901E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.12643528629588799</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.113169167931524</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.119840687224319</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.12300116771920599</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.4922477806927003E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.15855152231921199</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.118672471139946</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.140773466879274</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.13042872429448299</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.66523338771694E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.17676905024155101</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.12435948092777201</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.15270816418520899</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.13655274736242601</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.318027245668353</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.50747719208584297</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.18891109459806499</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.14665401675325501</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.18451378189467399</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.15970666965677399</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.18273162939832599</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.16710284860628599</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.18223038741577799</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.12755085581436901</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.23708905904637501</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.16293263054628901</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.200282912634386</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.17531289926455099</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.187303052859247</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.18074791132891899</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.18241978994864799</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.18333513495473699</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.125360456896843</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.24751211721312999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.16512005433236701</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-0.20552472629086099</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.17795724176460101</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-0.191009192787157</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.18325690216995599</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-0.18540588801855101</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.18557555437839801</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.12621960273832999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-0.25103682243533898</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.166669333517794</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.207599444300585</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.17931665296496899</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.192607875146485</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.18436461154157699</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-0.81573579591357404</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.94440408994002401</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.17652913762820299</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.119783972121905</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-9.4536059227814703E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-8.0087208889013897E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-7.0492377536033907E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-6.3320364970308907E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-2.9967008797825601E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-4.8793119587651E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-4.65321292804027E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-4.3864411617909001E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-4.0884322364831797E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-3.7700270827212098E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-3.4422993996363303E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-3.1156249565612599E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-2.7989890995721401E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-2.4995443452289101E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.8840168298007399E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-4.6150904968408998E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-3.8560515478287101E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-3.2038380043620203E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-1.0561086334439E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.8442446189785101E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2.8039265196267201E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.0731929031532901E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.15903563312085E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.8709444751026202E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.6446008106865102E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.46250758814781E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.5110556480120401E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.1112420512675599E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1.0248848373772801E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>9.4725492844410508E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8.7673381811190308E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>9.4672130772020507E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>7.0184151221073798E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6.6068830870722002E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.2696790261904398E-3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>5.4040028205977796E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5.1308652815490099E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.8470556697165004E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5.3459785510468604E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.9804621138251504E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4.4565069079700002E-3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3.3214911258931E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3.1778953697949299E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.5552988877568998E-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.6515744068905099E-3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.5358687486210698E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.8343255421552698E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.1145849046455599E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.0213050385304099E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.2573273957904E-3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.6843202203242001E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.6093261692285701E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.79615322917248E-3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1.34019318865584E-3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.51107064612066E-3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.1279163980382899E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1.0823907256651999E-3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.21417972363694E-3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9.0631282976427199E-4</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.3900607595918602E-3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.4439339537545499E-3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.6782177298003799E-3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.1734635205400501E-3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>8.3454884886340302E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A18C-4606-A516-3FBD744F6965}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>three_quarter_turn.txt_30_yaw_c!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanley with lookahead</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_30_yaw_c!$A$2:$A$205</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="204"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_30_yaw_c!$D$2:$D$205</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="204"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-5.63297962721723E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.5160921951486299E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.1887611275300301E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.94654902697163E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.7632796812214399E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.6212510637448201E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-8.6335143998659603E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.8730697197268093E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.83547086257448E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.1169900725185801E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-4.6919815354344004E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-9.5949230845911102E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.35648210219669E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.2447688300473899E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.3512402667394397E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.08010834689682</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.5203875848431001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.29062623151853301</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.13337029358243499</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.107172444717041</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.9838757108008094E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.3707159060321996E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.0195889060892299E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.9394625308641798E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.6215910450683499E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.3091036271512106E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-4.9062882966114101E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.9714572991518494E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-6.6167793126099494E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.107122007893707</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-7.9735619089126603E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.114366743044681</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.2068817593584901E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.12948285965285</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.114979735584694</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.12168197796437</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.12754872130359701</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.12169700855514699</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.13550557938883201</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.100206167577629</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.16999770044725701</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.12993723844281699</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.14958994489045599</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.14287953944943499</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.10152097165436499</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.191859719087284</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.136833413406968</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.16322475008445</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.48220010635252902</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.63535283059593495</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.22634661273846299</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.17626613697613899</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.46803770669120498</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.55177346021349105</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.2588989825015197E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.57760494772716697</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.560093951821241</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.56394282625335801</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.56498413145275805</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.56215388808590705</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.56865667549785304</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.7239225868965099E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.61173884042078397</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.57239796551102995</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.58118603398672097</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.57553189093254098</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.3788995756269602E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.62024872083687399</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.57822613232704201</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.58699613998717004</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.58080145067598798</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.3727500440434998E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-0.62530316862248503</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.58259292435254095</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-0.298386379975354</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.181813125416842</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.109211278690468</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-0.59016195069854605</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.58669008125849198</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-0.290484353815811</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-0.75464003758243503</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.0709378696455401</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-0.23250103851267101</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-0.13418747412790499</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-9.7371030784167797E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-7.7650362961422498E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-6.5351806787725605E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-5.6832218919093999E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-5.0405826661467701E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-4.5210045575207899E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-4.0783085252214503E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.5894897440322499E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-4.2133144176291999E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-3.7798330930596299E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-3.3874741153262701E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-3.0317650193413599E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-2.71047601928033E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-2.4221925028035302E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-2.1655487090391098E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-1.9388822321252601E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>9.1184030491590295E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-2.53954819523475E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.42129637259483E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9.2320684937592899E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.3228358278354102E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.00846342430321E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>9.4980533432094394E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>8.9706149048223403E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>8.4855987489522392E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>8.0322249821939105E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7.60364850692002E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7.1956113698149696E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.8055347422898904E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.4319074206869399E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.0738756778771202E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>7.1403533698750302E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4.8423060691602203E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4.6985270904455296E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4.5215662716115903E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5.4185859956653298E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.6821616058353001E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.6008305899378301E-3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4.3886844984306001E-3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.9844387698695E-3</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.93869834515998E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.8564019151962102E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.4532927047920101E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.3514942524028798E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.3071347151516E-3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.8177389363209901E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.9184887686452699E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.4026512944681699E-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.63469753054359E-3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.62706703121705E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.0174389148178802E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.3739228415055201E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.36194148986829E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.6807822885809001E-3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1.1451125047327499E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.1329086474046199E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.39500899021446E-3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9.50517705456011E-4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4.5251958637645999E-3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.69131793095231E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.4293333600891101E-3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.63161627508403E-3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.1172241075638101E-3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>7.7910621014810801E-4</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5.5270438352154796E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A18C-4606-A516-3FBD744F6965}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>three_quarter_turn.txt_30_yaw_c!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hybrid Stanley and Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_30_yaw_c!$A$2:$A$205</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="204"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>14.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>20.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>three_quarter_turn.txt_30_yaw_c!$E$2:$E$205</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="204"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.7766619287819599E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3.3276283657644103E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.9292683409272199E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-8.07148473837251E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.11877853865451E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.18516552405001E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.21960711833667E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.23133428901455E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-8.9554875408405996E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.02727217741119E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.3483134322959104E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.5037546130024502E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.5827426299345202E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-9.6462291549329393E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.3579462813526599E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.37921663594501E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.13035432158345</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.02707089805531</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.0982212367344301E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0764636635568199E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.96873259633645E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.7119881844481804E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.4204452384457402E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.8338436075221397E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.8972019707224602E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.5581697511499301E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.41132324111575E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.0225521971192103E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.170752976897667</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.13291178092908801</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.23063131151133501</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.19882534792640999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.27583755323208903</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.248744660209297</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.30886497224239401</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.4603227017610097E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.36096368701985498</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.37811889468245202</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.36791939123363698</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.38493759315544501</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.37323536985255501</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.38909403548223997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.4310074139356799E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.44175191388623603</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.42716969700777901</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.42268796198313202</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.2143263692035206E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.1958749291879299E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.2074223299733703E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.1380851862860802E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.3899516088225999E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.2026039846614599E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.4675499758025001E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.3606899264858901E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-1.5088027360432E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.6229454030735601E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-1.5249986399086799E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.9904342623285099E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-1.52483758836857E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.4584533697938201E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-1.5145303071197301E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.0191343227315099E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-1.4982367818528999E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.6311263443894399E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-1.47858746264406E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.8054543625991501E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-1.4571574955850499E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-1.7337869026812201E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.3595732236648599E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-1.7062515871425401E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.08379382255907E-4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-1.67766058878859E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-9.7439683143518696E-4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-1.64856922880562E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-1.8939166908893399E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-1.6193295355272301E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-2.44305358298169E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-1.59019157880291E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-2.7027123057319301E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-1.5613526305741001E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-2.7423436234648101E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-1.5329767838726501E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-2.6206154973545301E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-1.5052000415513001E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-2.3862185874153302E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-1.4781299165476101E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-1.7488402036588901E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-6.9970685494181702E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-1.6219101235924099E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-2.3750561461786501E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-2.9884832984793702E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-3.4846960242356603E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-3.8801551353731902E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-4.1866411463564498E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-1.3426125562170301E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-5.0501171451396903E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-5.1780069846876803E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-5.2213816170212299E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-5.1877593342874E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-5.0859709267243501E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-4.9260500699071903E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-0.27593650026006999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-3.1491751944824897E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-2.5250717735057701E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-2.02933507961305E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-1.64102584436982E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.29251091263162998</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-0.27876308461294003</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-2.5766222825731301E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-2.6114130519813199E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4.0648862121119997E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.87047047244201E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.22622163306324E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.1216064043558599E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.6084107997539598E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1.9293428054431801E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.06314451950367E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.8045700438921501E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.5999214253724699E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.4338844572869601E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.2960312579135699E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.17914830512043E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.25204962797741E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>9.2350950813288694E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8.6285708326993699E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8.05583448197973E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8.7926727887783704E-3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.5210663727800402E-3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6.16927307288688E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>6.8288061382609701E-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5.0773866313385896E-3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4.8337650910939799E-3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5.3833615300423604E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4.0090387541625401E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3.82680108906008E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4.2713393478654802E-3</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.1839711660798099E-3</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>3.0419734767291999E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.3969484473337802E-3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.5335496205402099E-3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.4208859274038501E-3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2.70287967293941E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.01641922445857E-3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1.9264662052390199E-3</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2.1501183711562801E-3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.60416734982037E-3</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1.8088368611176801E-3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1.3501228588778001E-3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.2956949237381899E-3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.99290757432871E-3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2.15881232126197E-2</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="0.00E+00">
+                  <c:v>-7.7190303119192396E-5</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="0.00E+00">
+                  <c:v>-9.52316816674771E-5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-1.20435007826901E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A18C-4606-A516-3FBD744F6965}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="23366927"/>
+        <c:axId val="23370671"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="23366927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time, s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23370671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="23370671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Yaw change,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> rad</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23366927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48EB1A9-082D-4DF8-A215-A4B6E5A47A6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -875,11 +6929,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206:A250"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4455,5 +10509,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>